--- a/Automation Test cases/Automation test case.xlsx
+++ b/Automation Test cases/Automation test case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\OrangeHrm\Automation Test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\OrangeHrmProject\OrangeHrm\Automation Test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE86F05-0035-4B80-B49E-8E152D100EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD0789-AE1D-46BD-8C98-1C02CEA846CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Attempt to navigate to Admin module URL directly.</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
   </si>
 </sst>
 </file>
@@ -177,18 +183,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,12 +210,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -219,8 +239,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +534,7 @@
     <col min="5" max="5" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +559,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -557,27 +583,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>17</v>
       </c>
